--- a/data/trans_orig/IP36BS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP36BS1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91938233-3497-4047-B0CC-B7677F77E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6F4C3D-E1CF-4EA7-82E9-C4A741952B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04C10EAB-B42A-414C-97FD-945B79DB2073}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7B1E876-C6F5-47AE-AE06-A96B9178624D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="580">
   <si>
     <t>Adultos según el tipo de pensión que perciben en 2007 (Tasa respuesta: 3,18%)</t>
   </si>
@@ -122,7 +122,7 @@
     <t>20,64%</t>
   </si>
   <si>
-    <t>72,68%</t>
+    <t>86,85%</t>
   </si>
   <si>
     <t>Jubilacion</t>
@@ -155,1654 +155,1630 @@
     <t>7,5%</t>
   </si>
   <si>
-    <t>41,18%</t>
+    <t>36,32%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>20,12%</t>
+    <t>17,33%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>51,43%</t>
+    <t>48,36%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2012 (Tasa respuesta: 5,38%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2016 (Tasa respuesta: 5,17%)</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2023 (Tasa respuesta: 0,68%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2012 (Tasa respuesta: 5,38%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2015 (Tasa respuesta: 5,17%)</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2023 (Tasa respuesta: 0,68%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>70,96%</t>
   </si>
   <si>
     <t>33,68%</t>
   </si>
   <si>
-    <t>79,02%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>84,55%</t>
+    <t>74,74%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>53,16%</t>
+    <t>54,0%</t>
   </si>
   <si>
     <t>37,18%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>56,38%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>83,37%</t>
+    <t>86,13%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B272C72E-AED5-467E-8F94-81A271FED09E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE87CD5-DBF4-403F-85BA-A84A9F322230}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4012,7 +3988,7 @@
         <v>104</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4003,13 @@
         <v>4511</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -4042,13 +4018,13 @@
         <v>1233</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -4057,13 +4033,13 @@
         <v>5744</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4054,13 @@
         <v>3148</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -4093,13 +4069,13 @@
         <v>3333</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -4108,13 +4084,13 @@
         <v>6481</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,28 +4158,28 @@
         <v>685</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -4212,13 +4188,13 @@
         <v>685</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,37 +4215,37 @@
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4266,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -4299,13 +4275,13 @@
         <v>1252</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -4314,13 +4290,13 @@
         <v>1252</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,37 +4317,37 @@
         <v>14</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,37 +4368,37 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4413,13 @@
         <v>4490</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H45" s="7">
         <v>6</v>
@@ -4452,13 +4428,13 @@
         <v>3617</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -4467,13 +4443,13 @@
         <v>8106</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4464,13 @@
         <v>6989</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H46" s="7">
         <v>12</v>
@@ -4503,13 +4479,13 @@
         <v>8121</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M46" s="7">
         <v>23</v>
@@ -4518,13 +4494,13 @@
         <v>15110</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4515,13 @@
         <v>9961</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4554,13 +4530,13 @@
         <v>9509</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M47" s="7">
         <v>28</v>
@@ -4569,13 +4545,13 @@
         <v>19469</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4607,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4651,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AF3859-2066-491F-B1E2-83312859E778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3813CA-AB70-4771-B9C2-34709D67F106}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4668,7 +4644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4781,7 +4757,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4790,13 +4766,13 @@
         <v>1128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4805,13 +4781,13 @@
         <v>1128</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4802,13 @@
         <v>3696</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4841,13 +4817,13 @@
         <v>5199</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4856,13 +4832,13 @@
         <v>8895</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4898,7 +4874,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4934,7 +4910,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4949,7 +4925,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4985,7 +4961,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5000,7 +4976,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5030,13 +5006,13 @@
         <v>1298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5045,13 +5021,13 @@
         <v>683</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5060,13 +5036,13 @@
         <v>1981</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5057,13 @@
         <v>645</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5096,13 +5072,13 @@
         <v>670</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5111,13 +5087,13 @@
         <v>1315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5108,13 @@
         <v>641</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5147,13 +5123,13 @@
         <v>1343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5162,13 +5138,13 @@
         <v>1984</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5212,13 @@
         <v>2413</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5251,13 +5227,13 @@
         <v>1294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5266,13 +5242,13 @@
         <v>3707</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5263,13 @@
         <v>6619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5302,13 +5278,13 @@
         <v>3964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -5317,13 +5293,13 @@
         <v>10583</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5314,13 @@
         <v>682</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5626,10 +5602,10 @@
         <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5679,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5733,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5724,13 @@
         <v>1286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -5763,13 +5739,13 @@
         <v>2542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5778,13 +5754,13 @@
         <v>3828</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5781,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5835,7 +5811,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,7 +5832,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5886,7 +5862,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5883,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5937,7 +5913,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5928,13 @@
         <v>1458</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -5967,13 +5943,13 @@
         <v>1489</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
@@ -5982,13 +5958,13 @@
         <v>2947</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5979,13 @@
         <v>1981</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6018,7 +5994,7 @@
         <v>1156</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
@@ -6164,7 +6140,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6194,7 +6170,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,10 +6188,10 @@
         <v>271</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -6224,13 +6200,13 @@
         <v>5189</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -6239,13 +6215,13 @@
         <v>11295</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,7 +6242,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6296,7 +6272,7 @@
         <v>14</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,7 +6293,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6347,7 +6323,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,7 +6344,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6398,7 +6374,7 @@
         <v>14</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6389,13 @@
         <v>651</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6428,13 +6404,13 @@
         <v>1331</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6443,13 +6419,13 @@
         <v>1983</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6440,13 @@
         <v>3712</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -6479,10 +6455,10 @@
         <v>2762</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>290</v>
@@ -6625,7 +6601,7 @@
         <v>304</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -6634,13 +6610,13 @@
         <v>2422</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -6649,13 +6625,13 @@
         <v>4835</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6646,13 @@
         <v>17707</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H41" s="7">
         <v>25</v>
@@ -6685,13 +6661,13 @@
         <v>16893</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M41" s="7">
         <v>50</v>
@@ -6700,13 +6676,13 @@
         <v>34601</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6697,13 @@
         <v>682</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6742,7 +6718,7 @@
         <v>14</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -6751,13 +6727,13 @@
         <v>683</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,7 +6754,7 @@
         <v>14</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -6793,7 +6769,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6808,7 +6784,7 @@
         <v>14</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6844,7 +6820,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6859,7 +6835,7 @@
         <v>14</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6850,13 @@
         <v>6954</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H45" s="7">
         <v>10</v>
@@ -6889,13 +6865,13 @@
         <v>7262</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M45" s="7">
         <v>20</v>
@@ -6904,13 +6880,13 @@
         <v>14216</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6901,13 @@
         <v>6798</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -6940,7 +6916,7 @@
         <v>5258</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>340</v>
@@ -6976,7 +6952,7 @@
         <v>5790</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>344</v>
@@ -7068,7 +7044,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7088,7 +7064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B278F-4001-42A9-987D-65459AC34EA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F269DFB-8524-4A21-800E-6F38EC4509B8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7266,7 +7242,7 @@
         <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -7278,10 +7254,10 @@
         <v>2354</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>362</v>
@@ -8063,10 +8039,10 @@
         <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8110,13 @@
         <v>717</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8155,7 +8131,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -8164,13 +8140,13 @@
         <v>717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8161,13 @@
         <v>2852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -8200,13 +8176,13 @@
         <v>3096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -8215,13 +8191,13 @@
         <v>5948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,13 +8212,13 @@
         <v>763</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8257,7 +8233,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -8266,13 +8242,13 @@
         <v>763</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,7 +8269,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8308,7 +8284,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8323,7 +8299,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,7 +8320,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8359,7 +8335,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8374,7 +8350,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8389,13 +8365,13 @@
         <v>734</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>167</v>
+        <v>436</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -8404,13 +8380,13 @@
         <v>3743</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -8419,13 +8395,13 @@
         <v>4478</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>439</v>
+        <v>217</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8440,13 +8416,13 @@
         <v>3239</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8455,13 +8431,13 @@
         <v>540</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -8473,10 +8449,10 @@
         <v>34</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8491,13 +8467,13 @@
         <v>4355</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8506,13 +8482,13 @@
         <v>4042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8521,13 +8497,13 @@
         <v>8397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8631,7 +8607,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8646,13 +8622,13 @@
         <v>4899</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8661,7 +8637,7 @@
         <v>2084</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>458</v>
+        <v>345</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>459</v>
@@ -8679,10 +8655,10 @@
         <v>100</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8733,7 +8709,7 @@
         <v>14</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8784,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8835,7 +8811,7 @@
         <v>14</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,13 +8841,13 @@
         <v>4740</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -8880,13 +8856,13 @@
         <v>4740</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8901,10 +8877,10 @@
         <v>2988</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>468</v>
+        <v>396</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>469</v>
@@ -8931,7 +8907,7 @@
         <v>2988</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>470</v>
@@ -8952,13 +8928,13 @@
         <v>7821</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8967,13 +8943,13 @@
         <v>1368</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M38" s="7">
         <v>12</v>
@@ -8982,13 +8958,13 @@
         <v>9189</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9056,13 +9032,13 @@
         <v>1487</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>481</v>
+        <v>175</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -9071,13 +9047,13 @@
         <v>1168</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -9086,13 +9062,13 @@
         <v>2655</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9107,13 +9083,13 @@
         <v>14110</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -9122,13 +9098,13 @@
         <v>9235</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M41" s="7">
         <v>36</v>
@@ -9137,13 +9113,13 @@
         <v>23344</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9158,13 +9134,13 @@
         <v>763</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9179,7 +9155,7 @@
         <v>14</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -9188,13 +9164,13 @@
         <v>763</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9209,13 +9185,13 @@
         <v>666</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -9230,7 +9206,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -9239,13 +9215,13 @@
         <v>666</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9260,13 +9236,13 @@
         <v>820</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -9281,7 +9257,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -9290,13 +9266,13 @@
         <v>820</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9311,13 +9287,13 @@
         <v>3287</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H45" s="7">
         <v>16</v>
@@ -9326,13 +9302,13 @@
         <v>9729</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M45" s="7">
         <v>22</v>
@@ -9341,13 +9317,13 @@
         <v>13016</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,13 +9338,13 @@
         <v>6227</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>518</v>
+        <v>256</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -9377,13 +9353,13 @@
         <v>1815</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -9392,13 +9368,13 @@
         <v>8042</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>75</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,13 +9389,13 @@
         <v>17317</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -9428,13 +9404,13 @@
         <v>6716</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>376</v>
+        <v>86</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
@@ -9443,13 +9419,13 @@
         <v>24033</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9505,7 +9481,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9525,7 +9501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0588F116-B3DE-4F9F-BCFC-3F11ADE39B0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E5AD2D-C084-468D-81A1-8A93E538919E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9542,7 +9518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9647,39 +9623,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9692,39 +9668,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9737,39 +9713,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9782,39 +9758,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9827,39 +9803,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9872,39 +9848,39 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9917,39 +9893,39 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9962,39 +9938,39 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10007,39 +9983,39 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10062,7 +10038,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10077,7 +10053,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -10113,7 +10089,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10128,7 +10104,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -10164,7 +10140,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -10179,7 +10155,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -10215,7 +10191,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -10230,7 +10206,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -10266,7 +10242,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -10278,7 +10254,7 @@
         <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>32</v>
@@ -10290,7 +10266,7 @@
         <v>799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
@@ -10317,7 +10293,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10332,7 +10308,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -10368,7 +10344,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10383,7 +10359,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10416,7 +10392,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -10434,7 +10410,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -10443,7 +10419,7 @@
         <v>366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>534</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
@@ -10523,7 +10499,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10538,7 +10514,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10574,7 +10550,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10589,7 +10565,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10625,7 +10601,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10640,7 +10616,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10676,7 +10652,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10691,7 +10667,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10724,7 +10700,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -10742,7 +10718,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -10751,7 +10727,7 @@
         <v>352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
@@ -10778,7 +10754,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -10790,7 +10766,7 @@
         <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>32</v>
@@ -10802,7 +10778,7 @@
         <v>573</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>12</v>
@@ -10829,7 +10805,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10844,7 +10820,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10880,7 +10856,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10895,7 +10871,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -10999,7 +10975,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -11014,7 +10990,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11050,7 +11026,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -11065,7 +11041,7 @@
         <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11080,13 +11056,13 @@
         <v>2139</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -11095,7 +11071,7 @@
         <v>784</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
@@ -11110,13 +11086,13 @@
         <v>2923</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>544</v>
+        <v>344</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11152,7 +11128,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -11167,7 +11143,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11182,13 +11158,13 @@
         <v>1590</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -11203,7 +11179,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -11212,13 +11188,13 @@
         <v>1590</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11233,13 +11209,13 @@
         <v>657</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -11248,7 +11224,7 @@
         <v>1099</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
@@ -11263,13 +11239,13 @@
         <v>1757</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11305,7 +11281,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -11320,7 +11296,7 @@
         <v>14</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11335,13 +11311,13 @@
         <v>1247</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -11350,7 +11326,7 @@
         <v>1242</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
@@ -11365,13 +11341,13 @@
         <v>2489</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11541,13 +11517,13 @@
         <v>2139</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -11556,13 +11532,13 @@
         <v>783</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -11571,13 +11547,13 @@
         <v>2923</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11649,7 +11625,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -11664,7 +11640,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -11673,13 +11649,13 @@
         <v>2741</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>570</v>
+        <v>205</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>571</v>
+        <v>95</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11694,13 +11670,13 @@
         <v>657</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -11709,13 +11685,13 @@
         <v>1672</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>576</v>
+        <v>13</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -11724,13 +11700,13 @@
         <v>2330</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>578</v>
+        <v>390</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11796,13 +11772,13 @@
         <v>1613</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -11811,13 +11787,13 @@
         <v>1242</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -11826,13 +11802,13 @@
         <v>2855</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11888,7 +11864,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
